--- a/data/trans_bre/P1806_2023-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1806_2023-Estudios-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>4.423202736916732</v>
+        <v>4.423202736916734</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>1.780033213895033</v>
+        <v>1.780033213895034</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.55329237800644</v>
+        <v>2.359757200860692</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.6307565382510276</v>
+        <v>0.5347914473253533</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.165088615128742</v>
+        <v>6.181480602791547</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3.579129650769134</v>
+        <v>3.501637295981956</v>
       </c>
     </row>
     <row r="7">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.086173815831158</v>
+        <v>1.130465409834924</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.4082202970717816</v>
+        <v>0.4367419009495214</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.071266189262755</v>
+        <v>3.186311378078788</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.977567906273897</v>
+        <v>2.08030376513836</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>3.378998065829255</v>
+        <v>3.378998065829256</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1.063898894125779</v>
+        <v>1.06389889412578</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.400271391957227</v>
+        <v>1.403089517948958</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>0.3166298904131718</v>
+        <v>0.2859853105611121</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.305013049406415</v>
+        <v>5.330524609267879</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>2.372234209887059</v>
+        <v>2.37804689622104</v>
       </c>
     </row>
     <row r="13">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.099157856216807</v>
+        <v>2.082762396031115</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.7875491768747074</v>
+        <v>0.7473310682723617</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.648689581067665</v>
+        <v>3.684545939111938</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.903918535402576</v>
+        <v>1.920029255611587</v>
       </c>
     </row>
     <row r="16">
